--- a/TIMES-DE/SuppXLS/Scen_TRA_MIDROAD_Maxshare_Constraint.xlsx
+++ b/TIMES-DE/SuppXLS/Scen_TRA_MIDROAD_Maxshare_Constraint.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonathan/Documents/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9094D4BA-5A57-B947-9951-55FF2DA23917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{1734E0BC-DC08-FE4A-8880-AAA560F2C40D}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -160,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -255,7 +249,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normale_Scen_UC_IND-StrucConst 2" xfId="1" xr:uid="{9F6F52CE-6968-034D-B25E-844E03EEFE80}"/>
+    <cellStyle name="Normale_Scen_UC_IND-StrucConst 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -559,28 +553,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50A9FFC-2A69-9B4C-91DC-965FBA11A9BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M2">
         <v>-1.01</v>
       </c>
@@ -588,26 +582,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K7" t="s">
         <v>9</v>
       </c>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
@@ -645,7 +639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -680,7 +674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>17</v>
       </c>
@@ -706,7 +700,7 @@
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -745,7 +739,7 @@
       </c>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>25</v>
       </c>
@@ -772,7 +766,7 @@
       </c>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>28</v>
       </c>
@@ -809,7 +803,7 @@
       </c>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>29</v>
       </c>
@@ -836,7 +830,7 @@
       </c>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>33</v>
       </c>
@@ -872,7 +866,7 @@
       </c>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>31</v>
       </c>
@@ -899,7 +893,7 @@
       </c>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -916,7 +910,7 @@
         <v>19</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="I17">
         <v>-0.1</v>
@@ -935,7 +929,7 @@
       </c>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>37</v>
       </c>
@@ -950,7 +944,7 @@
       </c>
       <c r="H18">
         <f>H17+1</f>
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="I18">
         <f t="shared" ref="I18:J18" si="5">I17+1</f>
@@ -962,7 +956,7 @@
       </c>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -980,7 +974,7 @@
       </c>
       <c r="H19">
         <f>H17</f>
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19" si="6">I17</f>
@@ -1000,7 +994,7 @@
       </c>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>38</v>
       </c>
@@ -1015,7 +1009,7 @@
       </c>
       <c r="H20">
         <f>H19+1</f>
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="I20">
         <f t="shared" ref="I20" si="7">I19+1</f>
@@ -1027,125 +1021,125 @@
       </c>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="N43" s="8"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -1153,15 +1147,15 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1197,7 +1191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>16</v>
       </c>
@@ -1229,7 +1223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>17</v>
       </c>

--- a/TIMES-DE/SuppXLS/Scen_TRA_MIDROAD_Maxshare_Constraint.xlsx
+++ b/TIMES-DE/SuppXLS/Scen_TRA_MIDROAD_Maxshare_Constraint.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
-  <si>
-    <t>Car Minimum distributions</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="44">
   <si>
     <t>Calibration factor</t>
   </si>
@@ -73,21 +70,12 @@
     <t>UC_FLO~2030</t>
   </si>
   <si>
-    <t>UC_RHSTS~UP~2025</t>
-  </si>
-  <si>
-    <t>UC_RHSTS~UP~0</t>
-  </si>
-  <si>
     <t>UC_MAX_TPC_ELC</t>
   </si>
   <si>
     <t>TPC*</t>
   </si>
   <si>
-    <t>TRA*</t>
-  </si>
-  <si>
     <t>TP*</t>
   </si>
   <si>
@@ -100,12 +88,6 @@
     <t>UC_FLO~2050</t>
   </si>
   <si>
-    <t>UC_MAX_TPC_ELC_NOEL</t>
-  </si>
-  <si>
-    <t>UC_MAX_TFV_ELC_NOEL</t>
-  </si>
-  <si>
     <t>TFV*</t>
   </si>
   <si>
@@ -115,9 +97,6 @@
     <t>Maximum share of electric freight vans</t>
   </si>
   <si>
-    <t>UC_MAX_TFT_ELC_NOEL</t>
-  </si>
-  <si>
     <t>TFT*</t>
   </si>
   <si>
@@ -130,18 +109,9 @@
     <t>Maximum share of electric passenger buses</t>
   </si>
   <si>
-    <t>UC_MAX_TPB_ELC_NOEL</t>
-  </si>
-  <si>
-    <t>UC_MAX_TPA_ELC_NOEL</t>
-  </si>
-  <si>
     <t>Maximum share of electric passenger airplanes</t>
   </si>
   <si>
-    <t>UC_MAX_TFA_ELC_NOEL</t>
-  </si>
-  <si>
     <t>TPA*</t>
   </si>
   <si>
@@ -149,6 +119,48 @@
   </si>
   <si>
     <t>Maximum share of electric freight airplanes</t>
+  </si>
+  <si>
+    <t>UC_FLO~2060</t>
+  </si>
+  <si>
+    <t>Car Maximum distributions</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>LimType</t>
+  </si>
+  <si>
+    <t>UC_FLO</t>
+  </si>
+  <si>
+    <t>UC_RHSRTS</t>
+  </si>
+  <si>
+    <t>UC_RHSRTS~0</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>UC_MAX_TFV_ELC</t>
+  </si>
+  <si>
+    <t>UC_MAX_TFT_ELC</t>
+  </si>
+  <si>
+    <t>UC_MAX_TPB_ELC</t>
+  </si>
+  <si>
+    <t>UC_MAX_TPA_ELC</t>
+  </si>
+  <si>
+    <t>UC_MAX_TFA_ELC</t>
   </si>
 </sst>
 </file>
@@ -561,687 +573,1123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H32" sqref="H9:H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M2">
         <v>-1.01</v>
       </c>
       <c r="N2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K7" t="s">
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="G8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="S8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="T8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="U8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9">
-        <v>-0.1</v>
-      </c>
-      <c r="I9">
-        <v>-0.3</v>
+        <v>15</v>
+      </c>
+      <c r="H9" s="8">
+        <v>2020</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
       </c>
       <c r="J9">
-        <v>-0.84</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="S9">
+        <v>-0.1</v>
+      </c>
+      <c r="T9">
+        <v>-0.3</v>
+      </c>
+      <c r="U9">
+        <v>-0.84</v>
+      </c>
+      <c r="V9">
+        <v>-0.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10">
-        <f>H9+1</f>
+        <v>15</v>
+      </c>
+      <c r="H10" s="8">
+        <v>2020</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="P10" s="7"/>
+      <c r="S10">
+        <f>S9+1</f>
         <v>0.9</v>
       </c>
-      <c r="I10">
-        <f t="shared" ref="I10:J10" si="0">I9+1</f>
+      <c r="T10">
+        <f t="shared" ref="T10:U10" si="0">T9+1</f>
         <v>0.7</v>
       </c>
-      <c r="J10">
+      <c r="U10">
         <f t="shared" si="0"/>
         <v>0.16000000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
+      <c r="V10">
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11">
-        <f>H9</f>
+        <v>15</v>
+      </c>
+      <c r="H11" s="8">
+        <v>2060</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>15</v>
+      </c>
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="S11">
+        <f>S9</f>
         <v>-0.1</v>
       </c>
-      <c r="I11">
-        <f t="shared" ref="I11:J11" si="1">I9</f>
+      <c r="T11">
+        <f t="shared" ref="T11:U11" si="1">T9</f>
         <v>-0.3</v>
       </c>
-      <c r="J11">
+      <c r="U11">
         <f t="shared" si="1"/>
         <v>-0.84</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="V11">
+        <v>-0.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12">
-        <f>H11+1</f>
+        <v>15</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2060</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12">
+        <v>0.84</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="S12">
+        <f>S11+1</f>
         <v>0.9</v>
       </c>
-      <c r="I12">
-        <f t="shared" ref="I12:J12" si="2">I11+1</f>
+      <c r="T12">
+        <f t="shared" ref="T12:U12" si="2">T11+1</f>
         <v>0.7</v>
       </c>
-      <c r="J12">
+      <c r="U12">
         <f t="shared" si="2"/>
         <v>0.16000000000000003</v>
       </c>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="V12">
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13">
-        <f>H11</f>
-        <v>-0.1</v>
-      </c>
-      <c r="I13">
-        <v>-0.1</v>
-      </c>
-      <c r="J13" s="7">
-        <v>-0.5</v>
+        <v>20</v>
+      </c>
+      <c r="H13" s="8">
+        <v>2020</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M13" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13" s="7"/>
+      <c r="S13">
+        <f>S11</f>
+        <v>-0.1</v>
+      </c>
+      <c r="T13">
+        <v>-0.1</v>
+      </c>
+      <c r="U13" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="V13" s="7">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14">
-        <f>H13+1</f>
+        <v>20</v>
+      </c>
+      <c r="H14" s="8">
+        <v>2020</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14">
+        <v>0.1</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="P14" s="7"/>
+      <c r="S14">
+        <f>S13+1</f>
         <v>0.9</v>
       </c>
-      <c r="I14">
-        <f t="shared" ref="I14" si="3">I13+1</f>
+      <c r="T14">
+        <f t="shared" ref="T14" si="3">T13+1</f>
         <v>0.9</v>
       </c>
-      <c r="J14" s="7">
-        <f>1+J13</f>
+      <c r="U14" s="7">
+        <f>1+U13</f>
         <v>0.5</v>
       </c>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
+      <c r="V14" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15">
-        <v>-0.1</v>
-      </c>
-      <c r="I15">
-        <v>-0.1</v>
+        <v>20</v>
+      </c>
+      <c r="H15" s="8">
+        <v>2060</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
       </c>
       <c r="J15">
-        <v>-0.84</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M15" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15" s="7"/>
+      <c r="S15">
+        <v>-0.1</v>
+      </c>
+      <c r="T15">
+        <v>-0.1</v>
+      </c>
+      <c r="U15">
+        <v>-0.84</v>
+      </c>
+      <c r="V15">
+        <v>-0.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16">
-        <f>H15+1</f>
+        <v>20</v>
+      </c>
+      <c r="H16" s="8">
+        <v>2060</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16">
+        <v>0.84</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="P16" s="7"/>
+      <c r="S16">
+        <f>S15+1</f>
         <v>0.9</v>
       </c>
-      <c r="I16">
-        <f t="shared" ref="I16:J16" si="4">I15+1</f>
+      <c r="T16">
+        <f t="shared" ref="T16:U16" si="4">T15+1</f>
         <v>0.9</v>
       </c>
-      <c r="J16">
+      <c r="U16">
         <f t="shared" si="4"/>
         <v>0.16000000000000003</v>
       </c>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="V16">
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
         <v>37</v>
       </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17">
-        <v>-0.01</v>
-      </c>
-      <c r="I17">
-        <v>-0.1</v>
+        <v>20</v>
+      </c>
+      <c r="H17" s="8">
+        <v>2020</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
       </c>
       <c r="J17">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="P17" s="7"/>
+      <c r="S17">
+        <v>-0.01</v>
+      </c>
+      <c r="T17">
+        <v>-0.1</v>
+      </c>
+      <c r="U17">
+        <v>-0.5</v>
+      </c>
+      <c r="V17">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="8">
+        <v>2020</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18">
         <v>0</v>
       </c>
-      <c r="M17" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18">
-        <f>H17+1</f>
+      <c r="N18" s="8"/>
+      <c r="P18" s="7"/>
+      <c r="S18">
+        <f>S17+1</f>
         <v>0.99</v>
       </c>
-      <c r="I18">
-        <f t="shared" ref="I18:J18" si="5">I17+1</f>
+      <c r="T18">
+        <f t="shared" ref="T18:U18" si="5">T17+1</f>
         <v>0.9</v>
       </c>
-      <c r="J18">
+      <c r="U18">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
+      <c r="V18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19">
-        <f>H17</f>
-        <v>-0.01</v>
-      </c>
-      <c r="I19">
-        <f t="shared" ref="I19" si="6">I17</f>
-        <v>-0.1</v>
-      </c>
-      <c r="J19" s="7">
-        <v>-0.5</v>
+        <v>20</v>
+      </c>
+      <c r="H19" s="8">
+        <v>2060</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
+        <v>15</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="8"/>
+      <c r="P19" s="7"/>
+      <c r="S19">
+        <f>S17</f>
+        <v>-0.01</v>
+      </c>
+      <c r="T19">
+        <f t="shared" ref="T19" si="6">T17</f>
+        <v>-0.1</v>
+      </c>
+      <c r="U19" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="V19" s="7">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="8">
+        <v>2060</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20">
+        <v>0.5</v>
+      </c>
+      <c r="N20" s="8"/>
+      <c r="P20" s="7"/>
+      <c r="S20">
+        <f>S19+1</f>
+        <v>0.99</v>
+      </c>
+      <c r="T20">
+        <f t="shared" ref="T20" si="7">T19+1</f>
+        <v>0.9</v>
+      </c>
+      <c r="U20" s="7">
+        <f>1+U19</f>
+        <v>0.5</v>
+      </c>
+      <c r="V20" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="8">
+        <v>2020</v>
+      </c>
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
         <v>0</v>
       </c>
-      <c r="M19" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="L21">
+        <v>15</v>
+      </c>
+      <c r="M21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="8"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="8">
+        <v>2020</v>
+      </c>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22">
+        <v>0.1</v>
+      </c>
+      <c r="N22" s="8"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="8">
+        <v>2060</v>
+      </c>
+      <c r="I23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>15</v>
+      </c>
+      <c r="M23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="8"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="8">
+        <v>2060</v>
+      </c>
+      <c r="I24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24">
+        <v>0.84</v>
+      </c>
+      <c r="N24" s="8"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="8">
+        <v>2020</v>
+      </c>
+      <c r="I25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>15</v>
+      </c>
+      <c r="M25" t="s">
         <v>26</v>
       </c>
-      <c r="G20" t="s">
+      <c r="N25" s="8"/>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="8">
+        <v>2020</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26">
+        <v>0.5</v>
+      </c>
+      <c r="N26" s="8"/>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="8">
+        <v>2060</v>
+      </c>
+      <c r="I27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>15</v>
+      </c>
+      <c r="M27" t="s">
         <v>26</v>
       </c>
-      <c r="H20">
-        <f>H19+1</f>
-        <v>0.99</v>
-      </c>
-      <c r="I20">
-        <f t="shared" ref="I20" si="7">I19+1</f>
-        <v>0.9</v>
-      </c>
-      <c r="J20" s="7">
-        <f>1+J19</f>
+      <c r="N27" s="8"/>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="8">
+        <v>2060</v>
+      </c>
+      <c r="I28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28">
         <v>0.5</v>
       </c>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="N25" s="8"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="N26" s="8"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="N27" s="8"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
       <c r="N28" s="8"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="8">
+        <v>2020</v>
+      </c>
+      <c r="I29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>15</v>
+      </c>
+      <c r="M29" t="s">
+        <v>29</v>
+      </c>
       <c r="N29" s="8"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="P29" s="7"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="8">
+        <v>2020</v>
+      </c>
+      <c r="I30" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
       <c r="N30" s="8"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="8">
+        <v>2060</v>
+      </c>
+      <c r="I31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>15</v>
+      </c>
+      <c r="M31" t="s">
+        <v>29</v>
+      </c>
       <c r="N31" s="8"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="8">
+        <v>2060</v>
+      </c>
+      <c r="I32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
       <c r="N32" s="8"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="N33" s="8"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="N34" s="8"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="N35" s="8"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="N36" s="8"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="N37" s="8"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="N38" s="8"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="N39" s="8"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="N40" s="8"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="N41" s="8"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="N42" s="8"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="N43" s="8"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K44" s="8"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I33" s="8"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I34" s="8"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49">
-        <v>-0.33</v>
-      </c>
-      <c r="I49">
-        <v>-0.5</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>4</v>
-      </c>
-      <c r="M49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D50" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50">
-        <v>0.66999999999999993</v>
-      </c>
-      <c r="I50">
-        <v>0.5</v>
-      </c>
+      <c r="I46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+    </row>
+    <row r="49" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+    </row>
+    <row r="50" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+    </row>
+    <row r="51" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+    </row>
+    <row r="52" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+    </row>
+    <row r="53" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+    </row>
+    <row r="54" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TIMES-DE/SuppXLS/Scen_TRA_MIDROAD_Maxshare_Constraint.xlsx
+++ b/TIMES-DE/SuppXLS/Scen_TRA_MIDROAD_Maxshare_Constraint.xlsx
@@ -565,7 +565,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -576,7 +576,7 @@
   <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H9:H32"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1490,7 +1490,7 @@
         <v>38</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N30" s="8"/>
       <c r="P30" s="7"/>
@@ -1552,7 +1552,7 @@
         <v>38</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N32" s="8"/>
       <c r="P32" s="7"/>

--- a/TIMES-DE/SuppXLS/Scen_TRA_MIDROAD_Maxshare_Constraint.xlsx
+++ b/TIMES-DE/SuppXLS/Scen_TRA_MIDROAD_Maxshare_Constraint.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="60">
   <si>
     <t>Calibration factor</t>
   </si>
@@ -160,9 +160,6 @@
     <t>UC_MAX_TFA_ELC</t>
   </si>
   <si>
-    <t>~UC_T: UC_COMPRD</t>
-  </si>
-  <si>
     <t>DE1</t>
   </si>
   <si>
@@ -199,20 +196,26 @@
     <t>UC_T</t>
   </si>
   <si>
-    <t>Maximum share of electric passenger airplanes International Long</t>
-  </si>
-  <si>
     <t>Maximum share of electric passenger airplanes International Short</t>
   </si>
   <si>
     <t>Maximum share of electric passenger airplanes National</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>~UC_T:UC_RHSRTS</t>
+  </si>
+  <si>
+    <t>UC_COMNET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,8 +262,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,6 +300,11 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -300,12 +315,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -317,8 +333,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="God" xfId="3" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normale_Scen_UC_IND-StrucConst 2" xfId="1"/>
     <cellStyle name="Ugyldig" xfId="2" builtinId="27"/>
@@ -625,7 +643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -633,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T80"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -647,10 +665,10 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="M2">
+      <c r="L2">
         <v>-1.01</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -665,17 +683,20 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
       <c r="H6" s="7"/>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="J6" s="7"/>
-      <c r="N6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
@@ -701,21 +722,21 @@
         <v>32</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="K7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="5"/>
       <c r="R7" t="s">
         <v>45</v>
       </c>
@@ -723,27 +744,28 @@
         <v>46</v>
       </c>
       <c r="T7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
       <c r="B8" t="str">
-        <f>"UC_MAX_T"&amp;S8&amp;T8&amp;"_ELC"&amp;"_REGION_IL"</f>
-        <v>UC_MAX_TPA_ELC_REGION_IL</v>
+        <f>"UC_MAX_T"&amp;R8&amp;S8&amp;"_ELC"&amp;"_REGION_IS"</f>
+        <v>UC_MAX_TPA_ELC_REGION_IS</v>
       </c>
       <c r="D8" t="str">
-        <f>"T"&amp;S8&amp;T8&amp;"IL"</f>
-        <v>TPAIL</v>
+        <f t="shared" ref="D8:D11" si="0">"T"&amp;R8&amp;S8&amp;"*"</f>
+        <v>TPA*</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="str">
-        <f>"T"&amp;S8&amp;"*"</f>
-        <v>TP*</v>
+        <f>"T"&amp;R8&amp;S8&amp;"IS"</f>
+        <v>TPAIS</v>
       </c>
       <c r="G8" t="str">
-        <f>F8</f>
+        <f t="shared" ref="G8:G11" si="1">"T"&amp;R8&amp;"*"</f>
         <v>TP*</v>
       </c>
       <c r="H8" s="8">
@@ -756,42 +778,41 @@
         <v>1</v>
       </c>
       <c r="K8">
+        <f t="shared" ref="K8:K19" si="2">Q8*T8</f>
         <v>0</v>
       </c>
       <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="7"/>
+      <c r="Q8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>15</v>
-      </c>
-      <c r="N8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7">
-        <v>1</v>
+      <c r="R8" t="s">
+        <v>47</v>
       </c>
       <c r="S8" t="s">
         <v>48</v>
       </c>
-      <c r="T8" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
       <c r="D9" t="str">
-        <f>"T"&amp;S9&amp;T9&amp;"IL"</f>
-        <v>TPAIL</v>
+        <f t="shared" si="0"/>
+        <v>TPA*</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" ref="F9:F21" si="0">"T"&amp;S9&amp;"*"</f>
-        <v>TP*</v>
+        <f>"T"&amp;R9&amp;S9&amp;"IS"</f>
+        <v>TPAIS</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" ref="G9:G21" si="1">F9</f>
+        <f t="shared" si="1"/>
         <v>TP*</v>
       </c>
       <c r="H9" s="8">
@@ -804,37 +825,42 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7">
-        <v>-0.1</v>
+        <f t="shared" si="2"/>
+        <v>36000</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9">
+        <v>0.5</v>
+      </c>
+      <c r="R9" t="s">
+        <v>47</v>
       </c>
       <c r="S9" t="s">
         <v>48</v>
       </c>
-      <c r="T9" t="s">
-        <v>49</v>
+      <c r="T9">
+        <v>72000</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
       <c r="B10" t="str">
-        <f>"UC_MAX_T"&amp;S10&amp;T10&amp;"_ELC"&amp;"_REGION_IS"</f>
-        <v>UC_MAX_TPA_ELC_REGION_IS</v>
+        <f>"UC_MAX_T"&amp;R10&amp;S10&amp;"_ELC"&amp;"_REGION_N"</f>
+        <v>UC_MAX_TPA_ELC_REGION_N</v>
       </c>
       <c r="D10" t="str">
-        <f>"T"&amp;S10&amp;T10&amp;"IS"</f>
-        <v>TPAIS</v>
+        <f t="shared" si="0"/>
+        <v>TPA*</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="str">
-        <f>"T"&amp;S10&amp;"*"</f>
-        <v>TP*</v>
+        <f>"T"&amp;R10&amp;S10&amp;"N"</f>
+        <v>TPAN</v>
       </c>
       <c r="G10" t="str">
-        <f>F10</f>
+        <f t="shared" si="1"/>
         <v>TP*</v>
       </c>
       <c r="H10" s="8">
@@ -847,40 +873,41 @@
         <v>1</v>
       </c>
       <c r="K10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>15</v>
-      </c>
-      <c r="N10" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="R10" t="s">
+        <v>47</v>
+      </c>
       <c r="S10" t="s">
         <v>48</v>
       </c>
-      <c r="T10" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
       <c r="D11" t="str">
-        <f>"T"&amp;S11&amp;T11&amp;"IS"</f>
-        <v>TPAIS</v>
+        <f t="shared" si="0"/>
+        <v>TPA*</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" ref="F11" si="2">"T"&amp;S11&amp;"*"</f>
-        <v>TP*</v>
+        <f>"T"&amp;R11&amp;S11&amp;"N"</f>
+        <v>TPAN</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" ref="G11" si="3">F11</f>
+        <f t="shared" si="1"/>
         <v>TP*</v>
       </c>
       <c r="H11" s="8">
@@ -893,36 +920,43 @@
         <v>1</v>
       </c>
       <c r="K11">
+        <f t="shared" si="2"/>
+        <v>22000</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11">
         <v>0.5</v>
       </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="R11" t="s">
+        <v>47</v>
+      </c>
       <c r="S11" t="s">
         <v>48</v>
       </c>
-      <c r="T11" t="s">
-        <v>49</v>
+      <c r="T11">
+        <v>44000</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
       <c r="B12" t="str">
-        <f>"UC_MAX_T"&amp;S12&amp;T12&amp;"_ELC"&amp;"_REGION_N"</f>
-        <v>UC_MAX_TPA_ELC_REGION_N</v>
+        <f t="shared" ref="B12:B18" si="3">"UC_MAX_T"&amp;R12&amp;S12&amp;"_ELC"&amp;"_REGION"</f>
+        <v>UC_MAX_TFV_ELC_REGION</v>
       </c>
       <c r="D12" t="str">
-        <f>"T"&amp;S12&amp;T12&amp;"N"</f>
-        <v>TPAN</v>
+        <f t="shared" ref="D12:D19" si="4">"T"&amp;R12&amp;S12&amp;"*"</f>
+        <v>TFV*</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="str">
-        <f>"T"&amp;S12&amp;"*"</f>
-        <v>TP*</v>
+        <f t="shared" ref="F12:F13" si="5">"T"&amp;R12&amp;"*"</f>
+        <v>TF*</v>
       </c>
       <c r="G12" t="str">
-        <f>F12</f>
-        <v>TP*</v>
+        <f t="shared" ref="G12:G13" si="6">F12</f>
+        <v>TF*</v>
       </c>
       <c r="H12" s="8">
         <v>2020</v>
@@ -934,41 +968,46 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>900</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>15</v>
-      </c>
-      <c r="N12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12">
+        <v>0.1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>49</v>
+      </c>
       <c r="S12" t="s">
-        <v>48</v>
-      </c>
-      <c r="T12" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="T12">
+        <f>9000</f>
+        <v>9000</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
       <c r="D13" t="str">
-        <f>"T"&amp;S13&amp;T13&amp;"N"</f>
-        <v>TPAN</v>
+        <f t="shared" si="4"/>
+        <v>TFV*</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" ref="F13" si="4">"T"&amp;S13&amp;"*"</f>
-        <v>TP*</v>
+        <f t="shared" si="5"/>
+        <v>TF*</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" ref="G13" si="5">F13</f>
-        <v>TP*</v>
+        <f t="shared" si="6"/>
+        <v>TF*</v>
       </c>
       <c r="H13" s="8">
         <v>2060</v>
@@ -980,38 +1019,45 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>0.5</v>
-      </c>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+        <f t="shared" si="2"/>
+        <v>12330</v>
+      </c>
+      <c r="P13" s="7"/>
+      <c r="Q13">
+        <v>0.9</v>
+      </c>
+      <c r="R13" t="s">
+        <v>49</v>
+      </c>
       <c r="S13" t="s">
-        <v>48</v>
-      </c>
-      <c r="T13" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="T13">
+        <v>13700</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
       <c r="B14" t="str">
-        <f t="shared" ref="B14:B20" si="6">"UC_MAX_T"&amp;S14&amp;T14&amp;"_ELC"&amp;"_REGION"</f>
-        <v>UC_MAX_TFV_ELC_REGION</v>
+        <f t="shared" si="3"/>
+        <v>UC_MAX_TFT_ELC_REGION</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" ref="D14:D21" si="7">"T"&amp;S14&amp;T14&amp;"*"</f>
-        <v>TFV*</v>
+        <f t="shared" si="4"/>
+        <v>TFT*</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F14:F19" si="7">"T"&amp;R14&amp;"*"</f>
         <v>TF*</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G14:G19" si="8">F14</f>
         <v>TF*</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>2020</v>
       </c>
       <c r="I14" t="s">
@@ -1021,43 +1067,46 @@
         <v>1</v>
       </c>
       <c r="K14">
+        <f t="shared" si="2"/>
+        <v>29576.600000000002</v>
+      </c>
+      <c r="L14">
+        <v>15</v>
+      </c>
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14">
         <v>0.1</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>15</v>
-      </c>
-      <c r="N14" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="R14" t="s">
+        <v>49</v>
+      </c>
       <c r="S14" t="s">
-        <v>50</v>
-      </c>
-      <c r="T14" t="s">
         <v>51</v>
       </c>
+      <c r="T14">
+        <v>295766</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
       <c r="D15" t="str">
-        <f t="shared" si="7"/>
-        <v>TFV*</v>
+        <f t="shared" si="4"/>
+        <v>TFT*</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>TF*</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>TF*</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>2060</v>
       </c>
       <c r="I15" t="s">
@@ -1067,38 +1116,45 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <v>0.9</v>
-      </c>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
+        <f t="shared" si="2"/>
+        <v>318957.09999999998</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="Q15">
+        <v>0.7</v>
+      </c>
+      <c r="R15" t="s">
+        <v>49</v>
+      </c>
       <c r="S15" t="s">
-        <v>50</v>
-      </c>
-      <c r="T15" t="s">
         <v>51</v>
       </c>
+      <c r="T15">
+        <v>455653</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" t="str">
-        <f t="shared" si="6"/>
-        <v>UC_MAX_TFT_ELC_REGION</v>
+        <f t="shared" si="3"/>
+        <v>UC_MAX_TPB_ELC_REGION</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="7"/>
-        <v>TFT*</v>
+        <f t="shared" si="4"/>
+        <v>TPB*</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>TF*</v>
+        <f t="shared" si="7"/>
+        <v>TP*</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v>TF*</v>
-      </c>
-      <c r="H16" s="7">
+        <f t="shared" si="8"/>
+        <v>TP*</v>
+      </c>
+      <c r="H16" s="8">
         <v>2020</v>
       </c>
       <c r="I16" t="s">
@@ -1108,41 +1164,46 @@
         <v>1</v>
       </c>
       <c r="K16">
+        <f t="shared" si="2"/>
+        <v>6550.7000000000007</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16">
         <v>0.1</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>15</v>
-      </c>
-      <c r="N16" t="s">
-        <v>22</v>
+      <c r="R16" t="s">
+        <v>47</v>
       </c>
       <c r="S16" t="s">
-        <v>50</v>
-      </c>
-      <c r="T16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T16">
+        <v>65507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
       <c r="D17" t="str">
-        <f t="shared" si="7"/>
-        <v>TFT*</v>
+        <f t="shared" si="4"/>
+        <v>TPB*</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>TF*</v>
+        <f t="shared" si="7"/>
+        <v>TP*</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v>TF*</v>
-      </c>
-      <c r="H17" s="7">
+        <f t="shared" si="8"/>
+        <v>TP*</v>
+      </c>
+      <c r="H17" s="8">
         <v>2060</v>
       </c>
       <c r="I17" t="s">
@@ -1152,34 +1213,42 @@
         <v>1</v>
       </c>
       <c r="K17">
-        <v>0.7</v>
-      </c>
-      <c r="N17" s="8"/>
+        <f t="shared" si="2"/>
+        <v>90916.2</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="Q17">
+        <v>0.9</v>
+      </c>
+      <c r="R17" t="s">
+        <v>47</v>
+      </c>
       <c r="S17" t="s">
-        <v>50</v>
-      </c>
-      <c r="T17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T17">
+        <v>101018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
       <c r="B18" t="str">
-        <f t="shared" si="6"/>
-        <v>UC_MAX_TPB_ELC_REGION</v>
+        <f t="shared" si="3"/>
+        <v>UC_MAX_TPC_ELC_REGION</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="7"/>
-        <v>TPB*</v>
+        <f t="shared" si="4"/>
+        <v>TPC*</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>TP*</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>TP*</v>
       </c>
       <c r="H18" s="8">
@@ -1192,38 +1261,43 @@
         <v>1</v>
       </c>
       <c r="K18">
+        <f t="shared" si="2"/>
+        <v>104729.5</v>
+      </c>
+      <c r="L18">
+        <v>15</v>
+      </c>
+      <c r="M18" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q18">
         <v>0.1</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>15</v>
-      </c>
-      <c r="N18" t="s">
-        <v>24</v>
+      <c r="R18" t="s">
+        <v>47</v>
       </c>
       <c r="S18" t="s">
-        <v>48</v>
-      </c>
-      <c r="T18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T18">
+        <v>1047295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
       <c r="D19" t="str">
-        <f t="shared" si="7"/>
-        <v>TPB*</v>
+        <f t="shared" si="4"/>
+        <v>TPC*</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>TP*</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>TP*</v>
       </c>
       <c r="H19" s="8">
@@ -1236,487 +1310,463 @@
         <v>1</v>
       </c>
       <c r="K19">
-        <v>0.9</v>
-      </c>
-      <c r="N19" s="8"/>
+        <f t="shared" si="2"/>
+        <v>1534272.7999999998</v>
+      </c>
+      <c r="M19" s="8"/>
+      <c r="Q19">
+        <v>0.95</v>
+      </c>
+      <c r="R19" t="s">
+        <v>47</v>
+      </c>
       <c r="S19" t="s">
-        <v>48</v>
-      </c>
-      <c r="T19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" t="str">
-        <f t="shared" si="6"/>
-        <v>UC_MAX_TPC_ELC_REGION</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="7"/>
-        <v>TPC*</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>TP*</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v>TP*</v>
-      </c>
-      <c r="H20" s="8">
-        <v>2020</v>
-      </c>
-      <c r="I20" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>0.1</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>15</v>
-      </c>
-      <c r="N20" t="s">
-        <v>15</v>
-      </c>
-      <c r="S20" t="s">
-        <v>48</v>
-      </c>
-      <c r="T20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D21" t="str">
-        <f t="shared" si="7"/>
-        <v>TPC*</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>TP*</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="1"/>
-        <v>TP*</v>
-      </c>
-      <c r="H21" s="8">
-        <v>2060</v>
-      </c>
-      <c r="I21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>0.95</v>
-      </c>
-      <c r="N21" s="8"/>
-      <c r="S21" t="s">
-        <v>48</v>
-      </c>
-      <c r="T21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="P24" s="7"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="P25" s="7"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="P26" s="7"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="P27" s="7"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="P28" s="7"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="P29" s="7"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="P30" s="7"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="P31" s="7"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="P32" s="7"/>
-    </row>
-    <row r="33" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="T19">
+        <v>1615024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O28" s="7"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O29" s="7"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O31" s="7"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O32" s="7"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O33" s="7"/>
       <c r="P33" s="7"/>
-    </row>
-    <row r="34" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="Q33" s="7"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O34" s="7"/>
       <c r="P34" s="7"/>
-      <c r="Q34" s="5"/>
-    </row>
-    <row r="35" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="Q34" s="7"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I35" s="8"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-    </row>
-    <row r="36" spans="5:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I36" s="8"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-    </row>
-    <row r="37" spans="5:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-    </row>
-    <row r="38" spans="5:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="I38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-    </row>
-    <row r="39" spans="5:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>-0.1</v>
+      </c>
+      <c r="F39">
+        <v>-0.3</v>
+      </c>
+      <c r="G39">
+        <v>-0.84</v>
+      </c>
+      <c r="H39">
+        <v>-0.84</v>
+      </c>
       <c r="I39" s="8"/>
-      <c r="O39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-    </row>
-    <row r="40" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>29</v>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f>E39+1</f>
+        <v>0.9</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ref="F40:G40" si="9">F39+1</f>
+        <v>0.7</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="9"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="H40">
+        <v>0.16000000000000003</v>
       </c>
       <c r="I40" s="8"/>
-      <c r="O40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-    </row>
-    <row r="41" spans="5:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E41">
+        <f>E39</f>
         <v>-0.1</v>
       </c>
       <c r="F41">
+        <f t="shared" ref="F41:G41" si="10">F39</f>
         <v>-0.3</v>
       </c>
       <c r="G41">
+        <f t="shared" si="10"/>
         <v>-0.84</v>
       </c>
       <c r="H41">
         <v>-0.84</v>
       </c>
       <c r="I41" s="8"/>
-      <c r="O41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-    </row>
-    <row r="42" spans="5:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E42">
         <f>E41+1</f>
         <v>0.9</v>
       </c>
       <c r="F42">
-        <f t="shared" ref="F42:G42" si="8">F41+1</f>
+        <f t="shared" ref="F42:G42" si="11">F41+1</f>
         <v>0.7</v>
       </c>
       <c r="G42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.16000000000000003</v>
       </c>
       <c r="H42">
         <v>0.16000000000000003</v>
       </c>
       <c r="I42" s="8"/>
-      <c r="O42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-    </row>
-    <row r="43" spans="5:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E43">
         <f>E41</f>
         <v>-0.1</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43:G43" si="9">F41</f>
-        <v>-0.3</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="9"/>
-        <v>-0.84</v>
-      </c>
-      <c r="H43">
-        <v>-0.84</v>
+        <v>-0.1</v>
+      </c>
+      <c r="G43" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="H43" s="7">
+        <v>-0.5</v>
       </c>
       <c r="I43" s="8"/>
-      <c r="O43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-    </row>
-    <row r="44" spans="5:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E44">
         <f>E43+1</f>
         <v>0.9</v>
       </c>
       <c r="F44">
-        <f t="shared" ref="F44:G44" si="10">F43+1</f>
-        <v>0.7</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="10"/>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="H44">
-        <v>0.16000000000000003</v>
+        <f t="shared" ref="F44" si="12">F43+1</f>
+        <v>0.9</v>
+      </c>
+      <c r="G44" s="7">
+        <f>1+G43</f>
+        <v>0.5</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0.5</v>
       </c>
       <c r="I44" s="8"/>
-      <c r="O44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-    </row>
-    <row r="45" spans="5:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E45">
-        <f>E43</f>
         <v>-0.1</v>
       </c>
       <c r="F45">
         <v>-0.1</v>
       </c>
-      <c r="G45" s="7">
-        <v>-0.5</v>
-      </c>
-      <c r="H45" s="7">
-        <v>-0.5</v>
+      <c r="G45">
+        <v>-0.84</v>
+      </c>
+      <c r="H45">
+        <v>-0.84</v>
       </c>
       <c r="I45" s="8"/>
-      <c r="O45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-    </row>
-    <row r="46" spans="5:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E46">
         <f>E45+1</f>
         <v>0.9</v>
       </c>
       <c r="F46">
-        <f t="shared" ref="F46" si="11">F45+1</f>
+        <f t="shared" ref="F46:G46" si="13">F45+1</f>
         <v>0.9</v>
       </c>
-      <c r="G46" s="7">
-        <f>1+G45</f>
-        <v>0.5</v>
-      </c>
-      <c r="H46" s="7">
-        <v>0.5</v>
+      <c r="G46">
+        <f t="shared" si="13"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="H46">
+        <v>0.16000000000000003</v>
       </c>
       <c r="I46" s="8"/>
-      <c r="O46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-    </row>
-    <row r="47" spans="5:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
       <c r="E47">
-        <v>-0.1</v>
+        <v>-0.01</v>
       </c>
       <c r="F47">
         <v>-0.1</v>
       </c>
       <c r="G47">
-        <v>-0.84</v>
+        <v>-0.5</v>
       </c>
       <c r="H47">
-        <v>-0.84</v>
+        <v>-0.5</v>
       </c>
       <c r="I47" s="8"/>
-      <c r="O47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-    </row>
-    <row r="48" spans="5:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
       <c r="E48">
         <f>E47+1</f>
+        <v>0.99</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ref="F48:G48" si="14">F47+1</f>
         <v>0.9</v>
       </c>
-      <c r="F48">
-        <f t="shared" ref="F48:G48" si="12">F47+1</f>
-        <v>0.9</v>
-      </c>
       <c r="G48">
-        <f t="shared" si="12"/>
-        <v>0.16000000000000003</v>
+        <f t="shared" si="14"/>
+        <v>0.5</v>
       </c>
       <c r="H48">
-        <v>0.16000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="I48" s="8"/>
-      <c r="O48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E49">
+        <f>E47</f>
         <v>-0.01</v>
       </c>
       <c r="F49">
+        <f t="shared" ref="F49" si="15">F47</f>
         <v>-0.1</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="7">
         <v>-0.5</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="7">
         <v>-0.5</v>
       </c>
       <c r="I49" s="8"/>
-      <c r="O49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E50">
         <f>E49+1</f>
         <v>0.99</v>
       </c>
       <c r="F50">
-        <f t="shared" ref="F50:G50" si="13">F49+1</f>
+        <f t="shared" ref="F50" si="16">F49+1</f>
         <v>0.9</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="13"/>
+      <c r="G50" s="7">
+        <f>1+G49</f>
         <v>0.5</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="7">
         <v>0.5</v>
       </c>
       <c r="I50" s="8"/>
-      <c r="O50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E51">
-        <f>E49</f>
-        <v>-0.01</v>
-      </c>
-      <c r="F51">
-        <f t="shared" ref="F51" si="14">F49</f>
-        <v>-0.1</v>
-      </c>
-      <c r="G51" s="7">
-        <v>-0.5</v>
-      </c>
-      <c r="H51" s="7">
-        <v>-0.5</v>
-      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I51" s="8"/>
-      <c r="O51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E52">
-        <f>E51+1</f>
-        <v>0.99</v>
-      </c>
-      <c r="F52">
-        <f t="shared" ref="F52" si="15">F51+1</f>
-        <v>0.9</v>
-      </c>
-      <c r="G52" s="7">
-        <f>1+G51</f>
-        <v>0.5</v>
-      </c>
-      <c r="H52" s="7">
-        <v>0.5</v>
-      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I52" s="8"/>
-      <c r="O52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I53" s="8"/>
-      <c r="O53" s="8"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I53" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N53" s="3"/>
+      <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I54" s="8"/>
-      <c r="O54" s="8"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I55" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O55" s="3"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="8">
+        <v>2020</v>
+      </c>
+      <c r="I55" t="s">
+        <v>37</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55" t="s">
+        <v>15</v>
+      </c>
+      <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B56" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="8">
+        <v>2020</v>
+      </c>
+      <c r="I56" t="s">
+        <v>37</v>
+      </c>
+      <c r="J56">
+        <v>0.1</v>
+      </c>
+      <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>13</v>
       </c>
@@ -1730,7 +1780,7 @@
         <v>14</v>
       </c>
       <c r="H57" s="8">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="I57" t="s">
         <v>37</v>
@@ -1741,16 +1791,11 @@
       <c r="K57">
         <v>0</v>
       </c>
-      <c r="L57">
+      <c r="L57" t="s">
         <v>15</v>
       </c>
-      <c r="M57" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>13</v>
       </c>
@@ -1764,32 +1809,33 @@
         <v>14</v>
       </c>
       <c r="H58" s="8">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="I58" t="s">
         <v>37</v>
       </c>
       <c r="J58">
-        <v>0.1</v>
-      </c>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
         <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H59" s="8">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="I59" t="s">
         <v>37</v>
@@ -1800,40 +1846,36 @@
       <c r="K59">
         <v>0</v>
       </c>
-      <c r="L59">
-        <v>15</v>
-      </c>
-      <c r="M59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L59" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="8"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E60" t="s">
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H60" s="8">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="I60" t="s">
         <v>37</v>
       </c>
       <c r="J60">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>38</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="M60" s="8"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>18</v>
       </c>
@@ -1847,7 +1889,7 @@
         <v>19</v>
       </c>
       <c r="H61" s="8">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="I61" t="s">
         <v>37</v>
@@ -1858,15 +1900,12 @@
       <c r="K61">
         <v>0</v>
       </c>
-      <c r="L61">
-        <v>15</v>
-      </c>
-      <c r="M61" t="s">
+      <c r="L61" t="s">
         <v>20</v>
       </c>
-      <c r="N61" s="8"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M61" s="8"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>18</v>
       </c>
@@ -1880,19 +1919,22 @@
         <v>19</v>
       </c>
       <c r="H62" s="8">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="I62" t="s">
         <v>37</v>
       </c>
       <c r="J62">
-        <v>0.1</v>
-      </c>
-      <c r="N62" s="8"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.84</v>
+      </c>
+      <c r="M62" s="8"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>39</v>
+      </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E63" t="s">
         <v>36</v>
@@ -1904,7 +1946,7 @@
         <v>19</v>
       </c>
       <c r="H63" s="8">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="I63" t="s">
         <v>37</v>
@@ -1915,17 +1957,14 @@
       <c r="K63">
         <v>0</v>
       </c>
-      <c r="L63">
-        <v>15</v>
-      </c>
-      <c r="M63" t="s">
-        <v>20</v>
-      </c>
-      <c r="N63" s="8"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L63" t="s">
+        <v>22</v>
+      </c>
+      <c r="M63" s="8"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E64" t="s">
         <v>16</v>
@@ -1937,20 +1976,17 @@
         <v>19</v>
       </c>
       <c r="H64" s="8">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="I64" t="s">
         <v>37</v>
       </c>
       <c r="J64">
-        <v>0.84</v>
-      </c>
-      <c r="N64" s="8"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M64" s="8"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>21</v>
       </c>
@@ -1964,7 +2000,7 @@
         <v>19</v>
       </c>
       <c r="H65" s="8">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="I65" t="s">
         <v>37</v>
@@ -1975,15 +2011,12 @@
       <c r="K65">
         <v>0</v>
       </c>
-      <c r="L65">
-        <v>15</v>
-      </c>
-      <c r="M65" t="s">
+      <c r="L65" t="s">
         <v>22</v>
       </c>
-      <c r="N65" s="8"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M65" s="8"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>21</v>
       </c>
@@ -1997,31 +2030,34 @@
         <v>19</v>
       </c>
       <c r="H66" s="8">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="I66" t="s">
         <v>37</v>
       </c>
       <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="N66" s="8"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="M66" s="8"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>40</v>
+      </c>
       <c r="D67" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E67" t="s">
         <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G67" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H67" s="8">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="I67" t="s">
         <v>37</v>
@@ -2032,42 +2068,36 @@
       <c r="K67">
         <v>0</v>
       </c>
-      <c r="L67">
-        <v>15</v>
-      </c>
-      <c r="M67" t="s">
-        <v>22</v>
-      </c>
-      <c r="N67" s="8"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L67" t="s">
+        <v>24</v>
+      </c>
+      <c r="M67" s="8"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E68" t="s">
         <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H68" s="8">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="I68" t="s">
         <v>37</v>
       </c>
       <c r="J68">
-        <v>0.5</v>
-      </c>
-      <c r="N68" s="8"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>40</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="M68" s="8"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>23</v>
       </c>
@@ -2081,7 +2111,7 @@
         <v>14</v>
       </c>
       <c r="H69" s="8">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="I69" t="s">
         <v>37</v>
@@ -2092,15 +2122,12 @@
       <c r="K69">
         <v>0</v>
       </c>
-      <c r="L69">
-        <v>15</v>
-      </c>
-      <c r="M69" t="s">
+      <c r="L69" t="s">
         <v>24</v>
       </c>
-      <c r="N69" s="8"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M69" s="8"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>23</v>
       </c>
@@ -2114,19 +2141,22 @@
         <v>14</v>
       </c>
       <c r="H70" s="8">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="I70" t="s">
         <v>37</v>
       </c>
       <c r="J70">
-        <v>0.1</v>
-      </c>
-      <c r="N70" s="8"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0.84</v>
+      </c>
+      <c r="M70" s="8"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>41</v>
+      </c>
       <c r="D71" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E71" t="s">
         <v>36</v>
@@ -2138,7 +2168,7 @@
         <v>14</v>
       </c>
       <c r="H71" s="8">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="I71" t="s">
         <v>37</v>
@@ -2149,17 +2179,14 @@
       <c r="K71">
         <v>0</v>
       </c>
-      <c r="L71">
-        <v>15</v>
-      </c>
-      <c r="M71" t="s">
-        <v>24</v>
-      </c>
-      <c r="N71" s="8"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L71" t="s">
+        <v>25</v>
+      </c>
+      <c r="M71" s="8"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E72" t="s">
         <v>16</v>
@@ -2171,20 +2198,17 @@
         <v>14</v>
       </c>
       <c r="H72" s="8">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="I72" t="s">
         <v>37</v>
       </c>
       <c r="J72">
-        <v>0.84</v>
-      </c>
-      <c r="N72" s="8"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>41</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="M72" s="8"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>26</v>
       </c>
@@ -2198,7 +2222,7 @@
         <v>14</v>
       </c>
       <c r="H73" s="8">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="I73" t="s">
         <v>37</v>
@@ -2209,15 +2233,12 @@
       <c r="K73">
         <v>0</v>
       </c>
-      <c r="L73">
-        <v>15</v>
-      </c>
-      <c r="M73" t="s">
+      <c r="L73" t="s">
         <v>25</v>
       </c>
-      <c r="N73" s="8"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M73" s="8"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>26</v>
       </c>
@@ -2231,7 +2252,7 @@
         <v>14</v>
       </c>
       <c r="H74" s="8">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="I74" t="s">
         <v>37</v>
@@ -2239,23 +2260,26 @@
       <c r="J74">
         <v>0.5</v>
       </c>
-      <c r="N74" s="8"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M74" s="8"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>42</v>
+      </c>
       <c r="D75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E75" t="s">
         <v>36</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G75" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H75" s="8">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="I75" t="s">
         <v>37</v>
@@ -2266,42 +2290,36 @@
       <c r="K75">
         <v>0</v>
       </c>
-      <c r="L75">
-        <v>15</v>
-      </c>
-      <c r="M75" t="s">
-        <v>25</v>
-      </c>
-      <c r="N75" s="8"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L75" t="s">
+        <v>28</v>
+      </c>
+      <c r="M75" s="8"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E76" t="s">
         <v>16</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H76" s="8">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="I76" t="s">
         <v>37</v>
       </c>
       <c r="J76">
-        <v>0.5</v>
-      </c>
-      <c r="N76" s="8"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>42</v>
-      </c>
+        <v>1E-3</v>
+      </c>
+      <c r="M76" s="8"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>27</v>
       </c>
@@ -2315,7 +2333,7 @@
         <v>19</v>
       </c>
       <c r="H77" s="8">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="I77" t="s">
         <v>37</v>
@@ -2326,15 +2344,12 @@
       <c r="K77">
         <v>0</v>
       </c>
-      <c r="L77">
-        <v>15</v>
-      </c>
-      <c r="M77" t="s">
+      <c r="L77" t="s">
         <v>28</v>
       </c>
-      <c r="N77" s="8"/>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M77" s="8"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>27</v>
       </c>
@@ -2348,7 +2363,7 @@
         <v>19</v>
       </c>
       <c r="H78" s="8">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="I78" t="s">
         <v>37</v>
@@ -2356,64 +2371,7 @@
       <c r="J78">
         <v>1E-3</v>
       </c>
-      <c r="N78" s="8"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
-        <v>27</v>
-      </c>
-      <c r="E79" t="s">
-        <v>36</v>
-      </c>
-      <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
-      <c r="H79" s="8">
-        <v>2060</v>
-      </c>
-      <c r="I79" t="s">
-        <v>37</v>
-      </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <v>15</v>
-      </c>
-      <c r="M79" t="s">
-        <v>28</v>
-      </c>
-      <c r="N79" s="8"/>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>27</v>
-      </c>
-      <c r="E80" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s">
-        <v>19</v>
-      </c>
-      <c r="H80" s="8">
-        <v>2060</v>
-      </c>
-      <c r="I80" t="s">
-        <v>37</v>
-      </c>
-      <c r="J80">
-        <v>1E-3</v>
-      </c>
-      <c r="N80" s="8"/>
+      <c r="M78" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TIMES-DE/SuppXLS/Scen_TRA_MIDROAD_Maxshare_Constraint.xlsx
+++ b/TIMES-DE/SuppXLS/Scen_TRA_MIDROAD_Maxshare_Constraint.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonathan/Documents/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3925A4AA-2F80-2647-88FD-21F9DA3048B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="23250" windowHeight="13170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13120" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="58">
   <si>
     <t>Calibration factor</t>
   </si>
@@ -61,12 +67,6 @@
     <t>Pset_CI</t>
   </si>
   <si>
-    <t>UC_FLO~2025</t>
-  </si>
-  <si>
-    <t>UC_FLO~2030</t>
-  </si>
-  <si>
     <t>UC_MAX_TPC_ELC</t>
   </si>
   <si>
@@ -82,9 +82,6 @@
     <t>TRAELC*</t>
   </si>
   <si>
-    <t>UC_FLO~2050</t>
-  </si>
-  <si>
     <t>TFV*</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>Maximum share of electric freight airplanes</t>
   </si>
   <si>
-    <t>UC_FLO~2060</t>
-  </si>
-  <si>
     <t>Car Maximum distributions</t>
   </si>
   <si>
@@ -205,16 +199,22 @@
     <t>DEM</t>
   </si>
   <si>
-    <t>~UC_T:UC_RHSRTS</t>
-  </si>
-  <si>
     <t>UC_COMNET</t>
+  </si>
+  <si>
+    <t>UC_T:UC_RHSRTS</t>
+  </si>
+  <si>
+    <t>~UC_T</t>
+  </si>
+  <si>
+    <t>UC_RHST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -336,10 +336,10 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="God" xfId="3" builtinId="26"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normale_Scen_UC_IND-StrucConst 2" xfId="1"/>
-    <cellStyle name="Ugyldig" xfId="2" builtinId="27"/>
+    <cellStyle name="Normale_Scen_UC_IND-StrucConst 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -643,28 +643,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="L2">
         <v>-1.01</v>
       </c>
@@ -672,30 +672,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="H6" s="7"/>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J6" s="7"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>3</v>
@@ -716,116 +716,108 @@
         <v>6</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="R7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" t="str">
         <f>"UC_MAX_T"&amp;R8&amp;S8&amp;"_ELC"&amp;"_REGION_IS"</f>
         <v>UC_MAX_TPA_ELC_REGION_IS</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" ref="D8:D11" si="0">"T"&amp;R8&amp;S8&amp;"*"</f>
-        <v>TPA*</v>
-      </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" t="str">
         <f>"T"&amp;R8&amp;S8&amp;"IS"</f>
         <v>TPAIS</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" ref="G8:G11" si="1">"T"&amp;R8&amp;"*"</f>
+        <f>"T"&amp;R8&amp;"*"</f>
         <v>TP*</v>
       </c>
       <c r="H8" s="8">
         <v>2020</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8:K19" si="2">Q8*T8</f>
+        <f t="shared" ref="K8:K19" si="0">Q8*T8</f>
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="S8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>TPA*</v>
-      </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" t="str">
         <f>"T"&amp;R9&amp;S9&amp;"IS"</f>
         <v>TPAIS</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="1"/>
+        <f>"T"&amp;R9&amp;"*"</f>
         <v>TP*</v>
       </c>
       <c r="H9" s="8">
         <v>2060</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>36000</v>
       </c>
       <c r="P9" s="7"/>
@@ -833,94 +825,86 @@
         <v>0.5</v>
       </c>
       <c r="R9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="S9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="T9">
         <v>72000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" t="str">
         <f>"UC_MAX_T"&amp;R10&amp;S10&amp;"_ELC"&amp;"_REGION_N"</f>
         <v>UC_MAX_TPA_ELC_REGION_N</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>TPA*</v>
-      </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" t="str">
         <f>"T"&amp;R10&amp;S10&amp;"N"</f>
         <v>TPAN</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="1"/>
+        <f>"T"&amp;R10&amp;"*"</f>
         <v>TP*</v>
       </c>
       <c r="H10" s="8">
         <v>2020</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="S10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>TPA*</v>
-      </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11" t="str">
         <f>"T"&amp;R11&amp;S11&amp;"N"</f>
         <v>TPAN</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="1"/>
+        <f>"T"&amp;R11&amp;"*"</f>
         <v>TP*</v>
       </c>
       <c r="H11" s="8">
         <v>2060</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>22000</v>
       </c>
       <c r="P11" s="7"/>
@@ -928,98 +912,90 @@
         <v>0.5</v>
       </c>
       <c r="R11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="S11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="T11">
         <v>44000</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" t="str">
-        <f t="shared" ref="B12:B18" si="3">"UC_MAX_T"&amp;R12&amp;S12&amp;"_ELC"&amp;"_REGION"</f>
+        <f>"UC_MAX_T"&amp;R12&amp;S12&amp;"_ELC"&amp;"_REGION"</f>
         <v>UC_MAX_TFV_ELC_REGION</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" ref="D12:D19" si="4">"T"&amp;R12&amp;S12&amp;"*"</f>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="str">
+        <f>"T"&amp;R12&amp;S12&amp;"*"</f>
         <v>TFV*</v>
       </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" ref="F12:F13" si="5">"T"&amp;R12&amp;"*"</f>
-        <v>TF*</v>
-      </c>
       <c r="G12" t="str">
-        <f t="shared" ref="G12:G13" si="6">F12</f>
-        <v>TF*</v>
+        <f>"T"&amp;S12&amp;"*"</f>
+        <v>TV*</v>
       </c>
       <c r="H12" s="8">
         <v>2020</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12">
         <v>0.1</v>
       </c>
       <c r="R12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="T12">
         <f>9000</f>
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
-      <c r="D13" t="str">
-        <f t="shared" si="4"/>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" ref="F13:F19" si="1">"T"&amp;R13&amp;S13&amp;"*"</f>
         <v>TFV*</v>
       </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="5"/>
-        <v>TF*</v>
-      </c>
       <c r="G13" t="str">
-        <f t="shared" si="6"/>
-        <v>TF*</v>
+        <f t="shared" ref="G13:G19" si="2">"T"&amp;S13&amp;"*"</f>
+        <v>TV*</v>
       </c>
       <c r="H13" s="8">
         <v>2060</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>12330</v>
       </c>
       <c r="P13" s="7"/>
@@ -1027,96 +1003,88 @@
         <v>0.9</v>
       </c>
       <c r="R13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="T13">
         <v>13700</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" t="str">
-        <f t="shared" si="3"/>
+        <f>"UC_MAX_T"&amp;R14&amp;S14&amp;"_ELC"&amp;"_REGION"</f>
         <v>UC_MAX_TFT_ELC_REGION</v>
       </c>
-      <c r="D14" t="str">
-        <f t="shared" si="4"/>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
         <v>TFT*</v>
       </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" ref="F14:F19" si="7">"T"&amp;R14&amp;"*"</f>
-        <v>TF*</v>
-      </c>
       <c r="G14" t="str">
-        <f t="shared" ref="G14:G19" si="8">F14</f>
-        <v>TF*</v>
+        <f t="shared" si="2"/>
+        <v>TT*</v>
       </c>
       <c r="H14" s="7">
         <v>2020</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>29576.600000000002</v>
       </c>
       <c r="L14">
         <v>15</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q14">
         <v>0.1</v>
       </c>
       <c r="R14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="T14">
         <v>295766</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
-      <c r="D15" t="str">
-        <f t="shared" si="4"/>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
         <v>TFT*</v>
       </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="7"/>
-        <v>TF*</v>
-      </c>
       <c r="G15" t="str">
-        <f t="shared" si="8"/>
-        <v>TF*</v>
+        <f t="shared" si="2"/>
+        <v>TT*</v>
       </c>
       <c r="H15" s="7">
         <v>2060</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>318957.09999999998</v>
       </c>
       <c r="M15" s="8"/>
@@ -1124,96 +1092,88 @@
         <v>0.7</v>
       </c>
       <c r="R15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="T15">
         <v>455653</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" t="str">
-        <f t="shared" si="3"/>
+        <f>"UC_MAX_T"&amp;R16&amp;S16&amp;"_ELC"&amp;"_REGION"</f>
         <v>UC_MAX_TPB_ELC_REGION</v>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" si="4"/>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
         <v>TPB*</v>
       </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="7"/>
-        <v>TP*</v>
-      </c>
       <c r="G16" t="str">
-        <f t="shared" si="8"/>
-        <v>TP*</v>
+        <f t="shared" si="2"/>
+        <v>TB*</v>
       </c>
       <c r="H16" s="8">
         <v>2020</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6550.7000000000007</v>
       </c>
       <c r="L16">
         <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q16">
         <v>0.1</v>
       </c>
       <c r="R16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="S16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T16">
         <v>65507</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-      <c r="D17" t="str">
-        <f t="shared" si="4"/>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
         <v>TPB*</v>
       </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="7"/>
-        <v>TP*</v>
-      </c>
       <c r="G17" t="str">
-        <f t="shared" si="8"/>
-        <v>TP*</v>
+        <f t="shared" si="2"/>
+        <v>TB*</v>
       </c>
       <c r="H17" s="8">
         <v>2060</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>90916.2</v>
       </c>
       <c r="M17" s="8"/>
@@ -1221,96 +1181,88 @@
         <v>0.9</v>
       </c>
       <c r="R17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="S17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T17">
         <v>101018</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" t="str">
-        <f t="shared" si="3"/>
+        <f>"UC_MAX_T"&amp;R18&amp;S18&amp;"_ELC"&amp;"_REGION"</f>
         <v>UC_MAX_TPC_ELC_REGION</v>
       </c>
-      <c r="D18" t="str">
-        <f t="shared" si="4"/>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
         <v>TPC*</v>
       </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="7"/>
-        <v>TP*</v>
-      </c>
       <c r="G18" t="str">
-        <f t="shared" si="8"/>
-        <v>TP*</v>
+        <f t="shared" si="2"/>
+        <v>TC*</v>
       </c>
       <c r="H18" s="8">
         <v>2020</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>104729.5</v>
       </c>
       <c r="L18">
         <v>15</v>
       </c>
       <c r="M18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q18">
         <v>0.1</v>
       </c>
       <c r="R18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="S18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="T18">
         <v>1047295</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
-      <c r="D19" t="str">
-        <f t="shared" si="4"/>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
         <v>TPC*</v>
       </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="7"/>
-        <v>TP*</v>
-      </c>
       <c r="G19" t="str">
-        <f t="shared" si="8"/>
-        <v>TP*</v>
+        <f t="shared" si="2"/>
+        <v>TC*</v>
       </c>
       <c r="H19" s="8">
         <v>2060</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1534272.7999999998</v>
       </c>
       <c r="M19" s="8"/>
@@ -1318,359 +1270,772 @@
         <v>0.95</v>
       </c>
       <c r="R19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="S19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="T19">
         <v>1615024</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O21" s="7"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O23" s="7"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O24" s="7"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O26" s="7"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O27" s="7"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O28" s="7"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O29" s="7"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O30" s="7"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O31" s="7"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O32" s="7"/>
-      <c r="P32" s="5"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O33" s="7"/>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="H26" s="7"/>
+      <c r="I26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" t="s">
+        <v>40</v>
+      </c>
+      <c r="R27" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27" t="s">
+        <v>42</v>
+      </c>
+      <c r="T27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" t="str">
+        <f>"UC_MAX_T"&amp;R28&amp;S28&amp;"_ELC"&amp;"_REGION_IS"</f>
+        <v>UC_MAX_TPA_ELC_REGION_IS</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" ref="D28:D39" si="3">"T"&amp;R28&amp;S28&amp;"*"</f>
+        <v>TPA*</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="str">
+        <f>"T"&amp;R28&amp;S28&amp;"IS"</f>
+        <v>TPAIS</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" ref="G28:G31" si="4">"T"&amp;R28&amp;"*"</f>
+        <v>TP*</v>
+      </c>
+      <c r="H28" s="8">
+        <v>2020</v>
+      </c>
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ref="K28:K39" si="5">Q28*T28</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
+      <c r="M28" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" s="7"/>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28" t="s">
+        <v>43</v>
+      </c>
+      <c r="S28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
+      <c r="D29" t="str">
+        <f t="shared" si="3"/>
+        <v>TPA*</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="str">
+        <f>"T"&amp;R29&amp;S29&amp;"IS"</f>
+        <v>TPAIS</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="4"/>
+        <v>TP*</v>
+      </c>
+      <c r="H29" s="8">
+        <v>2060</v>
+      </c>
+      <c r="I29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>36000</v>
+      </c>
+      <c r="P29" s="7"/>
+      <c r="Q29">
+        <v>0.5</v>
+      </c>
+      <c r="R29" t="s">
+        <v>43</v>
+      </c>
+      <c r="S29" t="s">
+        <v>44</v>
+      </c>
+      <c r="T29">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="11"/>
+      <c r="B30" t="str">
+        <f>"UC_MAX_T"&amp;R30&amp;S30&amp;"_ELC"&amp;"_REGION_N"</f>
+        <v>UC_MAX_TPA_ELC_REGION_N</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="3"/>
+        <v>TPA*</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="str">
+        <f>"T"&amp;R30&amp;S30&amp;"N"</f>
+        <v>TPAN</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="4"/>
+        <v>TP*</v>
+      </c>
+      <c r="H30" s="8">
+        <v>2020</v>
+      </c>
+      <c r="I30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" s="7"/>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30" t="s">
+        <v>43</v>
+      </c>
+      <c r="S30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="11"/>
+      <c r="D31" t="str">
+        <f t="shared" si="3"/>
+        <v>TPA*</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="str">
+        <f>"T"&amp;R31&amp;S31&amp;"N"</f>
+        <v>TPAN</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="4"/>
+        <v>TP*</v>
+      </c>
+      <c r="H31" s="8">
+        <v>2060</v>
+      </c>
+      <c r="I31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>22000</v>
+      </c>
+      <c r="P31" s="7"/>
+      <c r="Q31">
+        <v>0.5</v>
+      </c>
+      <c r="R31" t="s">
+        <v>43</v>
+      </c>
+      <c r="S31" t="s">
+        <v>44</v>
+      </c>
+      <c r="T31">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" t="str">
+        <f t="shared" ref="B32:B38" si="6">"UC_MAX_T"&amp;R32&amp;S32&amp;"_ELC"&amp;"_REGION"</f>
+        <v>UC_MAX_TFV_ELC_REGION</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="3"/>
+        <v>TFV*</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" ref="F32:F39" si="7">"T"&amp;R32&amp;"*"</f>
+        <v>TF*</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" ref="G32:G39" si="8">F32</f>
+        <v>TF*</v>
+      </c>
+      <c r="H32" s="8">
+        <v>2020</v>
+      </c>
+      <c r="I32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>900</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="M32" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="7"/>
+      <c r="Q32">
+        <v>0.1</v>
+      </c>
+      <c r="R32" t="s">
+        <v>45</v>
+      </c>
+      <c r="S32" t="s">
+        <v>46</v>
+      </c>
+      <c r="T32">
+        <f>9000</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="11"/>
+      <c r="D33" t="str">
+        <f t="shared" si="3"/>
+        <v>TFV*</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="7"/>
+        <v>TF*</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="8"/>
+        <v>TF*</v>
+      </c>
+      <c r="H33" s="8">
+        <v>2060</v>
+      </c>
+      <c r="I33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>12330</v>
+      </c>
       <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I35" s="8"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I36" s="8"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E39">
-        <v>-0.1</v>
-      </c>
-      <c r="F39">
-        <v>-0.3</v>
-      </c>
-      <c r="G39">
-        <v>-0.84</v>
-      </c>
-      <c r="H39">
-        <v>-0.84</v>
-      </c>
-      <c r="I39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E40">
-        <f>E39+1</f>
+      <c r="Q33">
         <v>0.9</v>
       </c>
-      <c r="F40">
-        <f t="shared" ref="F40:G40" si="9">F39+1</f>
+      <c r="R33" t="s">
+        <v>45</v>
+      </c>
+      <c r="S33" t="s">
+        <v>46</v>
+      </c>
+      <c r="T33">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
+      <c r="B34" t="str">
+        <f t="shared" ref="B34:B39" si="9">"UC_MAX_T"&amp;R34&amp;S34&amp;"_ELC"&amp;"_REGION"</f>
+        <v>UC_MAX_TFT_ELC_REGION</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="3"/>
+        <v>TFT*</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="7"/>
+        <v>TF*</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="8"/>
+        <v>TF*</v>
+      </c>
+      <c r="H34" s="7">
+        <v>2020</v>
+      </c>
+      <c r="I34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>29576.600000000002</v>
+      </c>
+      <c r="L34">
+        <v>15</v>
+      </c>
+      <c r="M34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q34">
+        <v>0.1</v>
+      </c>
+      <c r="R34" t="s">
+        <v>45</v>
+      </c>
+      <c r="S34" t="s">
+        <v>47</v>
+      </c>
+      <c r="T34">
+        <v>295766</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="D35" t="str">
+        <f t="shared" si="3"/>
+        <v>TFT*</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="7"/>
+        <v>TF*</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="8"/>
+        <v>TF*</v>
+      </c>
+      <c r="H35" s="7">
+        <v>2060</v>
+      </c>
+      <c r="I35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>318957.09999999998</v>
+      </c>
+      <c r="M35" s="8"/>
+      <c r="Q35">
         <v>0.7</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="9"/>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="H40">
-        <v>0.16000000000000003</v>
-      </c>
+      <c r="R35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S35" t="s">
+        <v>47</v>
+      </c>
+      <c r="T35">
+        <v>455653</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="11"/>
+      <c r="B36" t="str">
+        <f t="shared" ref="B36:B39" si="10">"UC_MAX_T"&amp;R36&amp;S36&amp;"_ELC"&amp;"_REGION"</f>
+        <v>UC_MAX_TPB_ELC_REGION</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="3"/>
+        <v>TPB*</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="7"/>
+        <v>TP*</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="8"/>
+        <v>TP*</v>
+      </c>
+      <c r="H36" s="8">
+        <v>2020</v>
+      </c>
+      <c r="I36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="5"/>
+        <v>6550.7000000000007</v>
+      </c>
+      <c r="L36">
+        <v>15</v>
+      </c>
+      <c r="M36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36">
+        <v>0.1</v>
+      </c>
+      <c r="R36" t="s">
+        <v>43</v>
+      </c>
+      <c r="S36" t="s">
+        <v>48</v>
+      </c>
+      <c r="T36">
+        <v>65507</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+      <c r="D37" t="str">
+        <f t="shared" si="3"/>
+        <v>TPB*</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="7"/>
+        <v>TP*</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="8"/>
+        <v>TP*</v>
+      </c>
+      <c r="H37" s="8">
+        <v>2060</v>
+      </c>
+      <c r="I37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="5"/>
+        <v>90916.2</v>
+      </c>
+      <c r="M37" s="8"/>
+      <c r="Q37">
+        <v>0.9</v>
+      </c>
+      <c r="R37" t="s">
+        <v>43</v>
+      </c>
+      <c r="S37" t="s">
+        <v>48</v>
+      </c>
+      <c r="T37">
+        <v>101018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
+      <c r="B38" t="str">
+        <f t="shared" ref="B38:B39" si="11">"UC_MAX_T"&amp;R38&amp;S38&amp;"_ELC"&amp;"_REGION"</f>
+        <v>UC_MAX_TPC_ELC_REGION</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="3"/>
+        <v>TPC*</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="7"/>
+        <v>TP*</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="8"/>
+        <v>TP*</v>
+      </c>
+      <c r="H38" s="8">
+        <v>2020</v>
+      </c>
+      <c r="I38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="5"/>
+        <v>104729.5</v>
+      </c>
+      <c r="L38">
+        <v>15</v>
+      </c>
+      <c r="M38" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q38">
+        <v>0.1</v>
+      </c>
+      <c r="R38" t="s">
+        <v>43</v>
+      </c>
+      <c r="S38" t="s">
+        <v>49</v>
+      </c>
+      <c r="T38">
+        <v>1047295</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
+      <c r="D39" t="str">
+        <f t="shared" si="3"/>
+        <v>TPC*</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="7"/>
+        <v>TP*</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="8"/>
+        <v>TP*</v>
+      </c>
+      <c r="H39" s="8">
+        <v>2060</v>
+      </c>
+      <c r="I39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="5"/>
+        <v>1534272.7999999998</v>
+      </c>
+      <c r="M39" s="8"/>
+      <c r="Q39">
+        <v>0.95</v>
+      </c>
+      <c r="R39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S39" t="s">
+        <v>49</v>
+      </c>
+      <c r="T39">
+        <v>1615024</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I40" s="8"/>
       <c r="N40" s="8"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E41">
-        <f>E39</f>
-        <v>-0.1</v>
-      </c>
-      <c r="F41">
-        <f t="shared" ref="F41:G41" si="10">F39</f>
-        <v>-0.3</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="10"/>
-        <v>-0.84</v>
-      </c>
-      <c r="H41">
-        <v>-0.84</v>
-      </c>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I41" s="8"/>
       <c r="N41" s="8"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E42">
-        <f>E41+1</f>
-        <v>0.9</v>
-      </c>
-      <c r="F42">
-        <f t="shared" ref="F42:G42" si="11">F41+1</f>
-        <v>0.7</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="11"/>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="H42">
-        <v>0.16000000000000003</v>
-      </c>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I42" s="8"/>
       <c r="N42" s="8"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E43">
-        <f>E41</f>
-        <v>-0.1</v>
-      </c>
-      <c r="F43">
-        <v>-0.1</v>
-      </c>
-      <c r="G43" s="7">
-        <v>-0.5</v>
-      </c>
-      <c r="H43" s="7">
-        <v>-0.5</v>
-      </c>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
       <c r="I43" s="8"/>
       <c r="N43" s="8"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E44">
-        <f>E43+1</f>
-        <v>0.9</v>
-      </c>
-      <c r="F44">
-        <f t="shared" ref="F44" si="12">F43+1</f>
-        <v>0.9</v>
-      </c>
-      <c r="G44" s="7">
-        <f>1+G43</f>
-        <v>0.5</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0.5</v>
-      </c>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
       <c r="I44" s="8"/>
       <c r="N44" s="8"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E45">
-        <v>-0.1</v>
-      </c>
-      <c r="F45">
-        <v>-0.1</v>
-      </c>
-      <c r="G45">
-        <v>-0.84</v>
-      </c>
-      <c r="H45">
-        <v>-0.84</v>
-      </c>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I45" s="8"/>
       <c r="N45" s="8"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E46">
-        <f>E45+1</f>
-        <v>0.9</v>
-      </c>
-      <c r="F46">
-        <f t="shared" ref="F46:G46" si="13">F45+1</f>
-        <v>0.9</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="13"/>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="H46">
-        <v>0.16000000000000003</v>
-      </c>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I46" s="8"/>
       <c r="N46" s="8"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
-      <c r="E47">
-        <v>-0.01</v>
-      </c>
-      <c r="F47">
-        <v>-0.1</v>
-      </c>
-      <c r="G47">
-        <v>-0.5</v>
-      </c>
-      <c r="H47">
-        <v>-0.5</v>
-      </c>
       <c r="I47" s="8"/>
       <c r="N47" s="8"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
-      <c r="E48">
-        <f>E47+1</f>
-        <v>0.99</v>
-      </c>
-      <c r="F48">
-        <f t="shared" ref="F48:G48" si="14">F47+1</f>
-        <v>0.9</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="14"/>
-        <v>0.5</v>
-      </c>
-      <c r="H48">
-        <v>0.5</v>
-      </c>
       <c r="I48" s="8"/>
       <c r="N48" s="8"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E49">
-        <f>E47</f>
-        <v>-0.01</v>
-      </c>
-      <c r="F49">
-        <f t="shared" ref="F49" si="15">F47</f>
-        <v>-0.1</v>
-      </c>
-      <c r="G49" s="7">
-        <v>-0.5</v>
-      </c>
-      <c r="H49" s="7">
-        <v>-0.5</v>
-      </c>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
       <c r="I49" s="8"/>
       <c r="N49" s="8"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E50">
-        <f>E49+1</f>
-        <v>0.99</v>
-      </c>
-      <c r="F50">
-        <f t="shared" ref="F50" si="16">F49+1</f>
-        <v>0.9</v>
-      </c>
-      <c r="G50" s="7">
-        <f>1+G49</f>
-        <v>0.5</v>
-      </c>
-      <c r="H50" s="7">
-        <v>0.5</v>
-      </c>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
       <c r="I50" s="8"/>
       <c r="N50" s="8"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="I51" s="8"/>
       <c r="N51" s="8"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="I52" s="8"/>
       <c r="N52" s="8"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="I53" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N53" s="3"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1690,16 +2055,16 @@
         <v>6</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>7</v>
@@ -1707,27 +2072,27 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" t="s">
         <v>12</v>
       </c>
-      <c r="D55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" t="s">
-        <v>36</v>
-      </c>
-      <c r="F55" t="s">
-        <v>14</v>
-      </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H55" s="8">
         <v>2020</v>
       </c>
       <c r="I55" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -1736,29 +2101,29 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H56" s="8">
         <v>2020</v>
       </c>
       <c r="I56" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J56">
         <v>0.1</v>
@@ -1766,24 +2131,24 @@
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H57" s="8">
         <v>2060</v>
       </c>
       <c r="I57" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -1792,53 +2157,53 @@
         <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H58" s="8">
         <v>2060</v>
       </c>
       <c r="I58" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J58">
         <v>0.84</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G59" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H59" s="8">
         <v>2020</v>
       </c>
       <c r="I59" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -1847,52 +2212,52 @@
         <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M59" s="8"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
         <v>16</v>
       </c>
-      <c r="F60" t="s">
-        <v>19</v>
-      </c>
       <c r="G60" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H60" s="8">
         <v>2020</v>
       </c>
       <c r="I60" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J60">
         <v>0.1</v>
       </c>
       <c r="M60" s="8"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G61" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H61" s="8">
         <v>2060</v>
       </c>
       <c r="I61" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -1901,55 +2266,55 @@
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M61" s="8"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
         <v>16</v>
       </c>
-      <c r="F62" t="s">
-        <v>19</v>
-      </c>
       <c r="G62" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H62" s="8">
         <v>2060</v>
       </c>
       <c r="I62" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J62">
         <v>0.84</v>
       </c>
       <c r="M62" s="8"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D63" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G63" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H63" s="8">
         <v>2020</v>
       </c>
       <c r="I63" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -1958,52 +2323,52 @@
         <v>0</v>
       </c>
       <c r="L63" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M63" s="8"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
         <v>16</v>
       </c>
-      <c r="F64" t="s">
-        <v>19</v>
-      </c>
       <c r="G64" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H64" s="8">
         <v>2020</v>
       </c>
       <c r="I64" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="M64" s="8"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G65" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H65" s="8">
         <v>2060</v>
       </c>
       <c r="I65" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -2012,55 +2377,55 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M65" s="8"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
         <v>16</v>
       </c>
-      <c r="F66" t="s">
-        <v>19</v>
-      </c>
       <c r="G66" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H66" s="8">
         <v>2060</v>
       </c>
       <c r="I66" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J66">
         <v>0.5</v>
       </c>
       <c r="M66" s="8"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D67" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H67" s="8">
         <v>2020</v>
       </c>
       <c r="I67" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -2069,52 +2434,52 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M67" s="8"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H68" s="8">
         <v>2020</v>
       </c>
       <c r="I68" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J68">
         <v>0.1</v>
       </c>
       <c r="M68" s="8"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E69" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H69" s="8">
         <v>2060</v>
       </c>
       <c r="I69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -2123,55 +2488,55 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M69" s="8"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H70" s="8">
         <v>2060</v>
       </c>
       <c r="I70" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J70">
         <v>0.84</v>
       </c>
       <c r="M70" s="8"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E71" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H71" s="8">
         <v>2020</v>
       </c>
       <c r="I71" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -2180,52 +2545,52 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M71" s="8"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H72" s="8">
         <v>2020</v>
       </c>
       <c r="I72" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J72">
         <v>0.5</v>
       </c>
       <c r="M72" s="8"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H73" s="8">
         <v>2060</v>
       </c>
       <c r="I73" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -2234,55 +2599,55 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M73" s="8"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H74" s="8">
         <v>2060</v>
       </c>
       <c r="I74" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J74">
         <v>0.5</v>
       </c>
       <c r="M74" s="8"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D75" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E75" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G75" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H75" s="8">
         <v>2020</v>
       </c>
       <c r="I75" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -2291,52 +2656,52 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M75" s="8"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" t="s">
         <v>16</v>
       </c>
-      <c r="F76" t="s">
-        <v>19</v>
-      </c>
       <c r="G76" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H76" s="8">
         <v>2020</v>
       </c>
       <c r="I76" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J76">
         <v>1E-3</v>
       </c>
       <c r="M76" s="8"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G77" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H77" s="8">
         <v>2060</v>
       </c>
       <c r="I77" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -2345,28 +2710,28 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M77" s="8"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" t="s">
         <v>16</v>
       </c>
-      <c r="F78" t="s">
-        <v>19</v>
-      </c>
       <c r="G78" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H78" s="8">
         <v>2060</v>
       </c>
       <c r="I78" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J78">
         <v>1E-3</v>

--- a/TIMES-DE/SuppXLS/Scen_TRA_MIDROAD_Maxshare_Constraint.xlsx
+++ b/TIMES-DE/SuppXLS/Scen_TRA_MIDROAD_Maxshare_Constraint.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonathan/Documents/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3925A4AA-2F80-2647-88FD-21F9DA3048B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13120" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="16005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -214,7 +208,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -336,10 +330,10 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="God" xfId="3" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normale_Scen_UC_IND-StrucConst 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normale_Scen_UC_IND-StrucConst 2" xfId="1"/>
+    <cellStyle name="Ugyldig" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -643,28 +637,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G12" sqref="G12:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L2">
         <v>-1.01</v>
       </c>
@@ -672,21 +666,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="H6" s="7"/>
       <c r="I6" t="s">
@@ -695,7 +689,7 @@
       <c r="J6" s="7"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>3</v>
@@ -747,7 +741,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" t="str">
         <f>"UC_MAX_T"&amp;R8&amp;S8&amp;"_ELC"&amp;"_REGION_IS"</f>
@@ -794,7 +788,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="E9" t="s">
         <v>14</v>
@@ -834,7 +828,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" t="str">
         <f>"UC_MAX_T"&amp;R10&amp;S10&amp;"_ELC"&amp;"_REGION_N"</f>
@@ -881,7 +875,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="E11" t="s">
         <v>14</v>
@@ -921,7 +915,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" t="str">
         <f>"UC_MAX_T"&amp;R12&amp;S12&amp;"_ELC"&amp;"_REGION"</f>
@@ -935,8 +929,8 @@
         <v>TFV*</v>
       </c>
       <c r="G12" t="str">
-        <f>"T"&amp;S12&amp;"*"</f>
-        <v>TV*</v>
+        <f>"T"&amp;R12&amp;"*"</f>
+        <v>TF*</v>
       </c>
       <c r="H12" s="8">
         <v>2020</v>
@@ -972,7 +966,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="E13" t="s">
         <v>14</v>
@@ -982,8 +976,8 @@
         <v>TFV*</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" ref="G13:G19" si="2">"T"&amp;S13&amp;"*"</f>
-        <v>TV*</v>
+        <f t="shared" ref="G13:G19" si="2">"T"&amp;R13&amp;"*"</f>
+        <v>TF*</v>
       </c>
       <c r="H13" s="8">
         <v>2060</v>
@@ -1012,7 +1006,7 @@
         <v>13700</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" t="str">
         <f>"UC_MAX_T"&amp;R14&amp;S14&amp;"_ELC"&amp;"_REGION"</f>
@@ -1027,7 +1021,7 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="2"/>
-        <v>TT*</v>
+        <v>TF*</v>
       </c>
       <c r="H14" s="7">
         <v>2020</v>
@@ -1061,7 +1055,7 @@
         <v>295766</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="E15" t="s">
         <v>14</v>
@@ -1072,7 +1066,7 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="2"/>
-        <v>TT*</v>
+        <v>TF*</v>
       </c>
       <c r="H15" s="7">
         <v>2060</v>
@@ -1101,7 +1095,7 @@
         <v>455653</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" t="str">
         <f>"UC_MAX_T"&amp;R16&amp;S16&amp;"_ELC"&amp;"_REGION"</f>
@@ -1116,7 +1110,7 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="2"/>
-        <v>TB*</v>
+        <v>TP*</v>
       </c>
       <c r="H16" s="8">
         <v>2020</v>
@@ -1150,7 +1144,7 @@
         <v>65507</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="E17" t="s">
         <v>14</v>
@@ -1161,7 +1155,7 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="2"/>
-        <v>TB*</v>
+        <v>TP*</v>
       </c>
       <c r="H17" s="8">
         <v>2060</v>
@@ -1190,7 +1184,7 @@
         <v>101018</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" t="str">
         <f>"UC_MAX_T"&amp;R18&amp;S18&amp;"_ELC"&amp;"_REGION"</f>
@@ -1205,7 +1199,7 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="2"/>
-        <v>TC*</v>
+        <v>TP*</v>
       </c>
       <c r="H18" s="8">
         <v>2020</v>
@@ -1239,7 +1233,7 @@
         <v>1047295</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="E19" t="s">
         <v>14</v>
@@ -1250,7 +1244,7 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
-        <v>TC*</v>
+        <v>TP*</v>
       </c>
       <c r="H19" s="8">
         <v>2060</v>
@@ -1279,26 +1273,26 @@
         <v>1615024</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="H26" s="7"/>
       <c r="I26" t="s">
@@ -1307,7 +1301,7 @@
       <c r="J26" s="7"/>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="3" t="s">
         <v>3</v>
@@ -1359,7 +1353,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" t="str">
         <f>"UC_MAX_T"&amp;R28&amp;S28&amp;"_ELC"&amp;"_REGION_IS"</f>
@@ -1410,7 +1404,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="D29" t="str">
         <f t="shared" si="3"/>
@@ -1454,7 +1448,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" t="str">
         <f>"UC_MAX_T"&amp;R30&amp;S30&amp;"_ELC"&amp;"_REGION_N"</f>
@@ -1505,7 +1499,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="D31" t="str">
         <f t="shared" si="3"/>
@@ -1549,10 +1543,10 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" t="str">
-        <f t="shared" ref="B32:B38" si="6">"UC_MAX_T"&amp;R32&amp;S32&amp;"_ELC"&amp;"_REGION"</f>
+        <f t="shared" ref="B32" si="6">"UC_MAX_T"&amp;R32&amp;S32&amp;"_ELC"&amp;"_REGION"</f>
         <v>UC_MAX_TFV_ELC_REGION</v>
       </c>
       <c r="D32" t="str">
@@ -1604,7 +1598,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="D33" t="str">
         <f t="shared" si="3"/>
@@ -1648,10 +1642,10 @@
         <v>13700</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" t="str">
-        <f t="shared" ref="B34:B39" si="9">"UC_MAX_T"&amp;R34&amp;S34&amp;"_ELC"&amp;"_REGION"</f>
+        <f t="shared" ref="B34" si="9">"UC_MAX_T"&amp;R34&amp;S34&amp;"_ELC"&amp;"_REGION"</f>
         <v>UC_MAX_TFT_ELC_REGION</v>
       </c>
       <c r="D34" t="str">
@@ -1701,7 +1695,7 @@
         <v>295766</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="D35" t="str">
         <f t="shared" si="3"/>
@@ -1745,10 +1739,10 @@
         <v>455653</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" t="str">
-        <f t="shared" ref="B36:B39" si="10">"UC_MAX_T"&amp;R36&amp;S36&amp;"_ELC"&amp;"_REGION"</f>
+        <f t="shared" ref="B36" si="10">"UC_MAX_T"&amp;R36&amp;S36&amp;"_ELC"&amp;"_REGION"</f>
         <v>UC_MAX_TPB_ELC_REGION</v>
       </c>
       <c r="D36" t="str">
@@ -1798,7 +1792,7 @@
         <v>65507</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="D37" t="str">
         <f t="shared" si="3"/>
@@ -1842,10 +1836,10 @@
         <v>101018</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" t="str">
-        <f t="shared" ref="B38:B39" si="11">"UC_MAX_T"&amp;R38&amp;S38&amp;"_ELC"&amp;"_REGION"</f>
+        <f t="shared" ref="B38" si="11">"UC_MAX_T"&amp;R38&amp;S38&amp;"_ELC"&amp;"_REGION"</f>
         <v>UC_MAX_TPC_ELC_REGION</v>
       </c>
       <c r="D38" t="str">
@@ -1895,7 +1889,7 @@
         <v>1047295</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="D39" t="str">
         <f t="shared" si="3"/>
@@ -1939,25 +1933,25 @@
         <v>1615024</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I40" s="8"/>
       <c r="N40" s="8"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I41" s="8"/>
       <c r="N41" s="8"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I42" s="8"/>
       <c r="N42" s="8"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="8"/>
@@ -1965,7 +1959,7 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="8"/>
@@ -1973,33 +1967,33 @@
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I45" s="8"/>
       <c r="N45" s="8"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I46" s="8"/>
       <c r="N46" s="8"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="I47" s="8"/>
       <c r="N47" s="8"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="I48" s="8"/>
       <c r="N48" s="8"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="8"/>
@@ -2007,7 +2001,7 @@
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="8"/>
@@ -2015,19 +2009,19 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I51" s="8"/>
       <c r="N51" s="8"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I52" s="8"/>
       <c r="N52" s="8"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I53" s="10" t="s">
         <v>50</v>
       </c>
@@ -2035,7 +2029,7 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2072,7 +2066,7 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>10</v>
       </c>
@@ -2106,7 +2100,7 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>11</v>
       </c>
@@ -2131,7 +2125,7 @@
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>11</v>
       </c>
@@ -2160,7 +2154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>11</v>
       </c>
@@ -2183,7 +2177,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>34</v>
       </c>
@@ -2216,7 +2210,7 @@
       </c>
       <c r="M59" s="8"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>15</v>
       </c>
@@ -2240,7 +2234,7 @@
       </c>
       <c r="M60" s="8"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>15</v>
       </c>
@@ -2270,7 +2264,7 @@
       </c>
       <c r="M61" s="8"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>15</v>
       </c>
@@ -2294,7 +2288,7 @@
       </c>
       <c r="M62" s="8"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>35</v>
       </c>
@@ -2327,7 +2321,7 @@
       </c>
       <c r="M63" s="8"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>18</v>
       </c>
@@ -2351,7 +2345,7 @@
       </c>
       <c r="M64" s="8"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>18</v>
       </c>
@@ -2381,7 +2375,7 @@
       </c>
       <c r="M65" s="8"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>18</v>
       </c>
@@ -2405,7 +2399,7 @@
       </c>
       <c r="M66" s="8"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>36</v>
       </c>
@@ -2438,7 +2432,7 @@
       </c>
       <c r="M67" s="8"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>20</v>
       </c>
@@ -2462,7 +2456,7 @@
       </c>
       <c r="M68" s="8"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>20</v>
       </c>
@@ -2492,7 +2486,7 @@
       </c>
       <c r="M69" s="8"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>20</v>
       </c>
@@ -2516,7 +2510,7 @@
       </c>
       <c r="M70" s="8"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>37</v>
       </c>
@@ -2549,7 +2543,7 @@
       </c>
       <c r="M71" s="8"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>23</v>
       </c>
@@ -2573,7 +2567,7 @@
       </c>
       <c r="M72" s="8"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>23</v>
       </c>
@@ -2603,7 +2597,7 @@
       </c>
       <c r="M73" s="8"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>23</v>
       </c>
@@ -2627,7 +2621,7 @@
       </c>
       <c r="M74" s="8"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>38</v>
       </c>
@@ -2660,7 +2654,7 @@
       </c>
       <c r="M75" s="8"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>24</v>
       </c>
@@ -2684,7 +2678,7 @@
       </c>
       <c r="M76" s="8"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>24</v>
       </c>
@@ -2714,7 +2708,7 @@
       </c>
       <c r="M77" s="8"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>24</v>
       </c>

--- a/TIMES-DE/SuppXLS/Scen_TRA_MIDROAD_Maxshare_Constraint.xlsx
+++ b/TIMES-DE/SuppXLS/Scen_TRA_MIDROAD_Maxshare_Constraint.xlsx
@@ -115,9 +115,6 @@
     <t>UC_FLO~2020</t>
   </si>
   <si>
-    <t>UC_FLO~2060</t>
-  </si>
-  <si>
     <t>UC_RHSRTS~UP~2020</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>Maximum share of electric N passenger airplanes</t>
+  </si>
+  <si>
+    <t>UC_FLO~2050</t>
   </si>
 </sst>
 </file>
@@ -573,12 +573,14 @@
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="9" max="9" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -623,19 +625,19 @@
         <v>27</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O5" t="s">
         <v>17</v>
@@ -654,7 +656,7 @@
         <v>TFV*</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" t="str">
         <f>"T"&amp;N6&amp;O6&amp;"*"</f>
@@ -747,7 +749,7 @@
         <v>TFT*</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
@@ -850,7 +852,7 @@
         <v>TPB*</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
@@ -955,7 +957,7 @@
         <v>TPC*</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="1"/>
@@ -1062,7 +1064,7 @@
         <v>TPAIS*</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
@@ -1085,13 +1087,13 @@
         <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N14" t="s">
         <v>18</v>
       </c>
       <c r="O14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q14">
         <v>0.1</v>
@@ -1138,7 +1140,7 @@
         <v>18</v>
       </c>
       <c r="O15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q15">
         <v>0.7</v>
@@ -1166,7 +1168,7 @@
         <v>TPAN*</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" ref="E16:E17" si="3">"T"&amp;N16&amp;O16&amp;"*"</f>
@@ -1189,13 +1191,13 @@
         <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N16" t="s">
         <v>18</v>
       </c>
       <c r="O16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q16">
         <v>0.1</v>
@@ -1242,7 +1244,7 @@
         <v>18</v>
       </c>
       <c r="O17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q17">
         <v>0.9</v>
